--- a/excel/urenoverzicht.xlsx
+++ b/excel/urenoverzicht.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10630"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AnyAccess.net\Europe\NLRTD\User\TSLU1\My Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theovandersluijs/PycharmProjects/toggl_process/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA74DC-235F-C746-98E8-7679C36B1D9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -131,13 +140,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +440,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -448,18 +456,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,7 +468,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,12 +477,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -498,29 +495,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -534,14 +531,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -840,37 +848,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" hidden="1" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>1</v>
@@ -909,663 +917,663 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
-      <c r="B3" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="O4" s="48"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="O4" s="43"/>
       <c r="P4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="O5" s="50"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="O5" s="45"/>
       <c r="P5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="O6" s="47"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="O6" s="42"/>
       <c r="P6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="P7" s="41"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="O12" s="51"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="O12" s="46"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="Q13" s="52">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="Q13" s="47">
         <f>DATE($E$1,1,1)</f>
         <v>43466</v>
       </c>
-      <c r="R13" s="51" t="s">
+      <c r="R13" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="Q14" s="52">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="Q14" s="47">
         <f>Q15-2</f>
         <v>43574</v>
       </c>
-      <c r="R14" s="51" t="s">
+      <c r="R14" s="46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="Q15" s="52">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="Q15" s="47">
         <f>FLOOR(DATE($E$1,5,DAY(MINUTE($E$1/38)/2+56)),7)-34</f>
         <v>43576</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="R15" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
       <c r="O16" s="4"/>
-      <c r="Q16" s="52">
+      <c r="Q16" s="47">
         <f>Q15+1</f>
         <v>43577</v>
       </c>
-      <c r="R16" s="51" t="s">
+      <c r="R16" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="Q17" s="52">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="Q17" s="47">
         <f>DATE($E$1,4,27)</f>
         <v>43582</v>
       </c>
-      <c r="R17" s="51" t="s">
+      <c r="R17" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="Q18" s="52">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="Q18" s="47">
         <f>Q15+39</f>
         <v>43615</v>
       </c>
-      <c r="R18" s="51" t="s">
+      <c r="R18" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="Q19" s="52">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="Q19" s="47">
         <f>Q15+49</f>
         <v>43625</v>
       </c>
-      <c r="R19" s="51" t="s">
+      <c r="R19" s="46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="Q20" s="52">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="Q20" s="47">
         <f>Q15+50</f>
         <v>43626</v>
       </c>
-      <c r="R20" s="51" t="s">
+      <c r="R20" s="46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="Q21" s="52">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="Q21" s="47">
         <f>DATE($E$1,12,25)</f>
         <v>43824</v>
       </c>
-      <c r="R21" s="51" t="s">
+      <c r="R21" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="Q22" s="52">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="Q22" s="47">
         <f>DATE($E$1,12,26)</f>
         <v>43825</v>
       </c>
-      <c r="R22" s="51" t="s">
+      <c r="R22" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="O26" s="52"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="O26" s="47"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="O28" s="51"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="O28" s="46"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" ht="16" thickBot="1">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1583,210 +1591,210 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="16" thickBot="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="9">
+      <c r="B36" s="52">
         <f>SUM(B4:B34)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="53">
         <f>SUM(C4:C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="54">
         <f t="shared" ref="D36:M36" si="0">SUM(D4:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N36" t="s">
         <v>14</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="49">
         <f>SUM(B36:N36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="17" t="s">
+    <row r="37" spans="1:15" ht="16" thickBot="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="50">
         <f>SUM(B37:M37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L39" s="19"/>
-      <c r="M39" s="19" t="s">
+    <row r="39" spans="1:15">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23">
-        <v>0</v>
-      </c>
-      <c r="N40" s="24">
+    <row r="40" spans="1:15">
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="19">
         <f>M40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H41" s="20" t="str">
+    <row r="41" spans="1:15">
+      <c r="H41" s="15" t="str">
         <f>"Meeruren " &amp;$E$1</f>
         <v>Meeruren 2019</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="23">
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="18">
         <f>O36</f>
         <v>0</v>
       </c>
-      <c r="N41" s="26"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H42" s="27" t="str">
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="H42" s="22" t="str">
         <f>"Uitbetaalde meeruren " &amp; $E$1</f>
         <v>Uitbetaalde meeruren 2019</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="23">
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="18">
         <f>O37</f>
         <v>0</v>
       </c>
-      <c r="N42" s="26"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H43" s="28" t="s">
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="H43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="31">
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26">
         <f>M41-M42</f>
         <v>0</v>
       </c>
-      <c r="N43" s="26"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="26"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="26"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H46" s="27" t="str">
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="21"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="H46" s="22" t="str">
         <f>"Extra verlofuren opgebouwd over " &amp; ($E$1-1)</f>
         <v>Extra verlofuren opgebouwd over 2018</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="36">
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="31">
         <f>25/(12*174.64/8)*M41</f>
         <v>0</v>
       </c>
-      <c r="N46" s="37">
+      <c r="N46" s="32">
         <f>M46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40" t="s">
+    <row r="47" spans="1:15">
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="41" t="s">
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="42">
+      <c r="N47" s="37">
         <f>SUM(N40:N46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H48" s="43"/>
+    <row r="48" spans="1:15">
+      <c r="H48" s="38"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="44"/>
+      <c r="N48" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1804,7 +1812,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029"</formula1>
     </dataValidation>
   </dataValidations>
